--- a/class_schedules_spring_2018/CINEMA STUDIES (CINE).xlsx
+++ b/class_schedules_spring_2018/CINEMA STUDIES (CINE).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="123">
   <si>
     <t>112</t>
   </si>
@@ -25,6 +25,9 @@
     <t>284F</t>
   </si>
   <si>
+    <t>284</t>
+  </si>
+  <si>
     <t>284H</t>
   </si>
   <si>
@@ -61,21 +64,63 @@
     <t>995F</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>18866</t>
   </si>
   <si>
+    <t>0130</t>
+  </si>
+  <si>
     <t>19235</t>
   </si>
   <si>
+    <t>0700</t>
+  </si>
+  <si>
     <t>17827</t>
   </si>
   <si>
+    <t>0900 1200am</t>
+  </si>
+  <si>
     <t>17828</t>
   </si>
   <si>
@@ -88,6 +133,9 @@
     <t>16028</t>
   </si>
   <si>
+    <t>0700 1000pm</t>
+  </si>
+  <si>
     <t>18397</t>
   </si>
   <si>
@@ -103,6 +151,9 @@
     <t>19261</t>
   </si>
   <si>
+    <t>0130 0430pm</t>
+  </si>
+  <si>
     <t>19257</t>
   </si>
   <si>
@@ -112,112 +163,175 @@
     <t>16847</t>
   </si>
   <si>
+    <t>16848</t>
+  </si>
+  <si>
+    <t>16850</t>
+  </si>
+  <si>
+    <t>16851</t>
+  </si>
+  <si>
+    <t>16852</t>
+  </si>
+  <si>
+    <t>16853</t>
+  </si>
+  <si>
     <t>16840</t>
   </si>
   <si>
+    <t>16841</t>
+  </si>
+  <si>
+    <t>16843</t>
+  </si>
+  <si>
+    <t>16844</t>
+  </si>
+  <si>
+    <t>16845</t>
+  </si>
+  <si>
+    <t>16846</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>0250pm KING</t>
+  </si>
+  <si>
+    <t>1030pm KING</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1000pm KING</t>
+  </si>
+  <si>
+    <t>1000pm MUDD</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Intro to American Documentary T</t>
-  </si>
-  <si>
-    <t>French Cinema: Nat'l/Global MWF 1100-1150am</t>
-  </si>
-  <si>
-    <t>AOI Workshop-Full F</t>
-  </si>
-  <si>
-    <t>AOI Workshop-Half F</t>
-  </si>
-  <si>
-    <t>Intro Advanced Study of Cinema TR</t>
-  </si>
-  <si>
-    <t>Cinematic Storytelling Wkshop T</t>
-  </si>
-  <si>
-    <t>Video Production Workshop I M</t>
-  </si>
-  <si>
-    <t>Sound for Moving Picture</t>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>Intro to American Documentary</t>
+  </si>
+  <si>
+    <t>French Cinema: Nat'l/Global MWF</t>
+  </si>
+  <si>
+    <t>AOI Workshop Full</t>
+  </si>
+  <si>
+    <t>AOI Workshop Half</t>
+  </si>
+  <si>
+    <t>Intro Advanced Study of Cinema</t>
+  </si>
+  <si>
+    <t>Cinematic Storytelling Wkshop</t>
+  </si>
+  <si>
+    <t>Video Production Workshop I</t>
+  </si>
+  <si>
+    <t>Sound for Moving</t>
   </si>
   <si>
     <t>Animation Workshop</t>
   </si>
   <si>
-    <t>The Short W</t>
-  </si>
-  <si>
-    <t>Imagining Immanence TR</t>
+    <t>The Short</t>
+  </si>
+  <si>
+    <t>Imagining Immanence</t>
   </si>
   <si>
     <t>Expts: Moving Image &amp; Sound II</t>
   </si>
   <si>
-    <t>Strange Cinema MW 0230-0345pm</t>
-  </si>
-  <si>
-    <t>Narratology and the Cinema M</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>0700-1030pm</t>
+    <t>Strange Cinema MW</t>
+  </si>
+  <si>
+    <t>Narratology and the Cinema</t>
+  </si>
+  <si>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>1150am</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0345pm</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>1030pm</t>
   </si>
   <si>
     <t>KING</t>
   </si>
   <si>
-    <t>0130-0430pm</t>
-  </si>
-  <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>0700-1000pm</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Half</t>
+    <t>0430pm</t>
+  </si>
+  <si>
+    <t>1215pm</t>
+  </si>
+  <si>
+    <t>1200am</t>
+  </si>
+  <si>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>1000pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
   <si>
     <t>343</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>APOL</t>
   </si>
   <si>
-    <t>0900-1100am</t>
-  </si>
-  <si>
-    <t>0900-1200am</t>
+    <t>1100am</t>
   </si>
   <si>
     <t>339</t>
@@ -238,6 +352,9 @@
     <t>MAIN</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
     <t>335</t>
   </si>
   <si>
@@ -259,10 +376,13 @@
     <t>Hartzell Kyle</t>
   </si>
   <si>
-    <t>Brown-Orso Elizabe</t>
+    <t>Orso Elizabe</t>
   </si>
   <si>
     <t>An Grace</t>
+  </si>
+  <si>
+    <t>Staff A&amp;S</t>
   </si>
 </sst>
 </file>
@@ -620,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -657,8 +777,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -666,556 +792,1177 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" t="s">
-        <v>82</v>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
